--- a/docs/SubledgerE2E_Aggregation_Testing.xlsx
+++ b/docs/SubledgerE2E_Aggregation_Testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" state="visible" r:id="rId3"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="262">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -60,96 +60,678 @@
     <t xml:space="preserve">IsGL</t>
   </si>
   <si>
+    <t xml:space="preserve">Incur Expense-Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accrue Income-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accrue Income-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fee Capitalized to Principal-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fee Capitalized to Principal-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Capitalized to Principal-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Capitalized to Principal-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Reverse Fee Capitalization-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Reverse Fee Capitalization-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Reverse Interest Capitalization-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Reverse Interest Capitalization-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Reverse Income-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Reverse Income-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA - Recognize Reversed Income-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA - Recognize Reversed Income-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA - Recongize Payments Applied to Principal-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catch-Up Amortization-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catch-Up Amortization-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catch-Up Amortization-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catch-Up Amortization-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Mod Amortization-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Mod Amortization-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Mod Amortization-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Mod Amortization-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Reverse Amortization-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Reverse Amortization-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Reverse Amortization-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Reverse Amortization-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheduled Amortization-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheduled Amortization-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheduled Amortization-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheduled Amortization-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA - Defer NA Payments Applied to Principal-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA - Defer NA Payments Applied to Principal-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA - Defer the Reversed Income-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA - Defer the Reversed Income-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defer Expense - Cost-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defer Income - Fee-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge-Off Relief-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge-Off Relief-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge-Off Relief-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge-Off Relief-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge-Off Relief-Impairment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge-Off Relief-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge-Off Relief-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge-Off Relief-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge-Off Relief-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Recover Charge-Off-Impairment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Recover Charge-Off-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Recover Charge-Off-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Relief-Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Relief-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Relief-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Relief-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Relief-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Relief-Gain or Loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Relief-Impairment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Relief-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Relief-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Relief-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreclosure - Relief-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidation - Relief-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidation - Relief-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidation - Relief-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidation - Relief-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidation - Relief-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidation - Relief-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquidation - Relief-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Reverse Charge-Off Relief-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repossession - Relief-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repossession - Relief-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repossession - Relief-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repossession - Relief-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repossession - Relief-Impairment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repossession - Relief-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repossession - Relief-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repossession - Relief-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repossession - Relief-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale  - Recover Charge-Off-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale  - Recover Charge-Off-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale - Relief-Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale - Relief-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale - Relief-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale - Relief-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale - Relief-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale - Relief-Gain or Loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale - Relief-Impairment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale - Relief-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale - Relief-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale - Relief-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale - Relief-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securitization - Recover Charge-Off-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securitization - Recover Charge-Off-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securitization - Relief-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securitization - Relief-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securitization - Relief-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securitization - Relief-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securitization - Relief-Gain or Loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securitization - Relief-Impairment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securitization - Relief-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securitization - Relief-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securitization - Relief-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Securitization - Relief-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disburse Principal-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawdown Credit-Credit Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Originate Credit Line-Credit Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prorate Deferred Expense-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prorate Deferred Income-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase - Securitization-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase - Securitization-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase - Securitization-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase - Securitization-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase - Securitization-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase - Securitization-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replenish Credit-Credit Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting Basis-Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting Basis-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Basis-Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Basis-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Basis-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Basis-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgiveness-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgiveness-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overpayment To Payable-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overpayment Refund-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment to Expense-Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment to Income-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Apply to Income-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Apply to Income-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Fee Payments Applied to Principal-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Interest Payments Applied to Principal-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Fee Payments Applied to Principal-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA - Interest Payments Applied to Principal-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtailment-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overpayment-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recover Charge-Off-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recover Charge-Off-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recover Charge-Off-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheduled Payment-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheduled Payment-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowance - Collectively Evaluated-Qualitative Adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowance - Collectively Evaluated-Quantitative Allowance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowance - Collectively Evaluated-Unfunded Commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowance - Individually Evaluated-Impairment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FVO - Reverse Deferral-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FVO - Reverse Deferral-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FVO - Recognize Discount-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FVO - Expense Premium-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Adjustment - Fair Value-Fair Value Adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Adjustment - LOCOM-LOCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion-Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion-Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion-Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion-Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion-Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion-Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion-NA Payments Applied to Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion-Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion-Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion-Qualitative Adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion-Quantitative Allowance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttributeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reclassable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nullable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OriginalNoteRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoanType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OriginationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BoardingType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaturityDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaymentType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StartDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OriginalTerm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProductType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CostCenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModificationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ModificationType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CurrentImpairmentType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFRS9Stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RiskRating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DaysPastDue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccrualStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserField19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OriginalFICOScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Generated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helper Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountSubType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria</t>
+  </si>
+  <si>
     <t xml:space="preserve">Revenue</t>
   </si>
   <si>
-    <t xml:space="preserve">New Billing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FX Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttributeName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IsReclassable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IsNullable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaturtiyDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProductName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RecognitionMethod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserField5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System Generated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helper Column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountSubType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria</t>
-  </si>
-  <si>
     <t xml:space="preserve">Positive</t>
   </si>
   <si>
@@ -222,16 +804,37 @@
     <t xml:space="preserve">Def Rev</t>
   </si>
   <si>
-    <t xml:space="preserve">TransactionName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetricName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice AND Credits</t>
+    <t xml:space="preserve">Transaction Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferred Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferred Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Applied to Principal</t>
   </si>
 </sst>
 </file>
@@ -241,7 +844,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,14 +876,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -300,19 +895,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -341,7 +929,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -351,10 +939,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -616,15 +1200,15 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D108" activeCellId="0" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="19.33"/>
   </cols>
   <sheetData>
@@ -632,7 +1216,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -640,7 +1224,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -651,10 +1235,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
+        <f aca="false">B2</f>
         <v>0</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -662,28 +1247,1984 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4"/>
+        <f aca="false">B3</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4"/>
+        <f aca="false">B4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">B5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">B6</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">B7</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">B8</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <f aca="false">B9</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <f aca="false">B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <f aca="false">B11</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <f aca="false">B12</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <f aca="false">B13</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <f aca="false">B14</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <f aca="false">B15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <f aca="false">B16</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <f aca="false">B17</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <f aca="false">B18</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <f aca="false">B19</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <f aca="false">B20</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <f aca="false">B21</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <f aca="false">B22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <f aca="false">B23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <f aca="false">B24</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <f aca="false">B25</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <f aca="false">B26</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <f aca="false">B27</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <f aca="false">B28</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <f aca="false">B29</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <f aca="false">B30</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <f aca="false">B31</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <f aca="false">B32</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <f aca="false">B33</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <f aca="false">B34</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <f aca="false">B35</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <f aca="false">B36</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <f aca="false">B37</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <f aca="false">B38</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <f aca="false">B39</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <f aca="false">B40</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <f aca="false">B41</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <f aca="false">B42</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <f aca="false">B43</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <f aca="false">B44</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <f aca="false">B45</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <f aca="false">B46</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <f aca="false">B47</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <f aca="false">B48</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <f aca="false">B49</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <f aca="false">B50</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <f aca="false">B51</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <f aca="false">B52</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <f aca="false">B53</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <f aca="false">B54</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <f aca="false">B55</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <f aca="false">B56</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <f aca="false">B57</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <f aca="false">B58</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <f aca="false">B59</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <f aca="false">B60</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <f aca="false">B61</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <f aca="false">B62</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <f aca="false">B63</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <f aca="false">B64</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <f aca="false">B65</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <f aca="false">B66</f>
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <f aca="false">B67</f>
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <f aca="false">B68</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <f aca="false">B69</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <f aca="false">B70</f>
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <f aca="false">B71</f>
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <f aca="false">B72</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <f aca="false">B73</f>
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <f aca="false">B74</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <f aca="false">B75</f>
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <f aca="false">B76</f>
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <f aca="false">B77</f>
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <f aca="false">B78</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <f aca="false">B79</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <f aca="false">B80</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <f aca="false">B81</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <f aca="false">B82</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <f aca="false">B83</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <f aca="false">B84</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <f aca="false">B85</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <f aca="false">B86</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <f aca="false">B87</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <f aca="false">B88</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <f aca="false">B89</f>
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <f aca="false">B90</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <f aca="false">B91</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <f aca="false">B92</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <f aca="false">B93</f>
+        <v>0</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <f aca="false">B94</f>
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <f aca="false">B95</f>
+        <v>0</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <f aca="false">B96</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <f aca="false">B97</f>
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <f aca="false">B98</f>
+        <v>0</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <f aca="false">B99</f>
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <f aca="false">B100</f>
+        <v>0</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <f aca="false">B101</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <f aca="false">B102</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <f aca="false">B103</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <f aca="false">B104</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <f aca="false">B105</f>
+        <v>0</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <f aca="false">B106</f>
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <f aca="false">B107</f>
+        <v>0</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <f aca="false">B108</f>
+        <v>0</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <f aca="false">B109</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <f aca="false">B110</f>
+        <v>0</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <f aca="false">B111</f>
+        <v>0</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <f aca="false">B112</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <f aca="false">B113</f>
+        <v>0</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <f aca="false">B114</f>
+        <v>0</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <f aca="false">B115</f>
+        <v>0</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <f aca="false">B116</f>
+        <v>0</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <f aca="false">B117</f>
+        <v>0</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <f aca="false">B118</f>
+        <v>0</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <f aca="false">B119</f>
+        <v>0</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <f aca="false">B120</f>
+        <v>0</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <f aca="false">B121</f>
+        <v>0</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <f aca="false">B122</f>
+        <v>0</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <f aca="false">B123</f>
+        <v>0</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <f aca="false">B124</f>
+        <v>0</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <f aca="false">B125</f>
+        <v>0</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <f aca="false">B126</f>
+        <v>0</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <f aca="false">B127</f>
+        <v>0</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <f aca="false">B128</f>
+        <v>0</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <f aca="false">B129</f>
+        <v>0</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <f aca="false">B130</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <f aca="false">B131</f>
+        <v>0</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <f aca="false">B132</f>
+        <v>0</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <f aca="false">B133</f>
+        <v>0</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <f aca="false">B134</f>
+        <v>0</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <f aca="false">B135</f>
+        <v>0</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <f aca="false">B136</f>
+        <v>0</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <f aca="false">B137</f>
+        <v>0</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <f aca="false">B138</f>
+        <v>0</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <f aca="false">B139</f>
+        <v>0</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <f aca="false">B140</f>
+        <v>0</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <f aca="false">B141</f>
+        <v>0</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <f aca="false">B142</f>
+        <v>0</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <f aca="false">B143</f>
+        <v>0</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <f aca="false">B144</f>
+        <v>0</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <f aca="false">B145</f>
+        <v>0</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <f aca="false">B146</f>
+        <v>0</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <f aca="false">B147</f>
+        <v>0</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <f aca="false">B148</f>
+        <v>0</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <f aca="false">B149</f>
+        <v>0</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <f aca="false">B150</f>
+        <v>0</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <f aca="false">B151</f>
+        <v>0</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <f aca="false">B152</f>
+        <v>0</v>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <f aca="false">B153</f>
+        <v>0</v>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <f aca="false">B154</f>
+        <v>0</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <f aca="false">B155</f>
+        <v>0</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <f aca="false">B156</f>
+        <v>0</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <f aca="false">B157</f>
+        <v>0</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <f aca="false">B158</f>
+        <v>0</v>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <f aca="false">B159</f>
+        <v>0</v>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <f aca="false">B160</f>
+        <v>0</v>
+      </c>
+      <c r="C161" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <f aca="false">B161</f>
+        <v>0</v>
+      </c>
+      <c r="C162" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <f aca="false">B162</f>
+        <v>0</v>
+      </c>
+      <c r="C163" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <f aca="false">B163</f>
+        <v>0</v>
+      </c>
+      <c r="C164" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <f aca="false">B164</f>
+        <v>0</v>
+      </c>
+      <c r="C165" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <f aca="false">B165</f>
+        <v>0</v>
+      </c>
+      <c r="C166" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <f aca="false">B166</f>
+        <v>0</v>
+      </c>
+      <c r="C167" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <f aca="false">B167</f>
+        <v>0</v>
+      </c>
+      <c r="C168" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -702,10 +3243,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -718,107 +3259,351 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
+      <c r="A1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
+      <c r="A2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
+      <c r="D2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
+      <c r="A3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
+      <c r="D3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
+      <c r="A4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
+      <c r="D4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
+      <c r="D5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
+      <c r="A6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -853,27 +3638,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,16 +3670,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -905,17 +3690,17 @@
       <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
+      <c r="C4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,17 +3711,17 @@
       <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
+      <c r="C5" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,16 +3733,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,16 +3754,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,16 +3775,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,16 +3796,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,16 +3817,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,16 +3838,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,16 +3859,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,16 +3880,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,16 +3901,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,7 +3943,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,134 +3951,134 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>238</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>-100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>226</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="C5" s="3" t="str">
         <f aca="false">C2</f>
         <v>Def</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>44</v>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="n">
+      <c r="C6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="n">
         <v>-100</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>44</v>
+      <c r="G6" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4" t="n">
+      <c r="C8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>46</v>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="n">
+      <c r="C9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="n">
         <v>-200</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>46</v>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>52</v>
+      <c r="J10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,16 +4086,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>46</v>
+      <c r="G11" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="M11" s="1" t="n">
         <v>100</v>
@@ -1321,32 +4106,32 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>-200</v>
       </c>
-      <c r="G12" s="4" t="str">
+      <c r="G12" s="3" t="str">
         <f aca="false">G8</f>
         <v>Revenue</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="4" t="n">
+      <c r="H12" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J12" s="3" t="n">
         <f aca="false">O11</f>
         <v>100</v>
       </c>
       <c r="M12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="3" t="n">
         <f aca="false">J12+M12</f>
         <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J13" s="4" t="n">
+      <c r="J13" s="3" t="n">
         <f aca="false">O12</f>
         <v>200</v>
       </c>
@@ -1356,7 +4141,7 @@
       <c r="M13" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="N13" s="3" t="n">
         <f aca="false">L13-J13-M13</f>
         <v>900</v>
       </c>
@@ -1369,66 +4154,66 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="4" t="n">
+        <v>249</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <f aca="false">N13</f>
         <v>900</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="N14" s="3" t="n">
         <f aca="false">K14-M14</f>
         <v>800</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>-1200</v>
       </c>
-      <c r="G15" s="4" t="str">
+      <c r="G15" s="3" t="str">
         <f aca="false">G11</f>
         <v>Def Revenue</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="4" t="n">
+      <c r="H15" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K15" s="3" t="n">
         <f aca="false">N14</f>
         <v>800</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4" t="n">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="N15" s="4" t="n">
+      <c r="N15" s="3" t="n">
         <f aca="false">K15-M15</f>
         <v>700</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="3" t="n">
         <f aca="false">N15</f>
         <v>700</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="n">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="N16" s="4" t="n">
+      <c r="N16" s="3" t="n">
         <f aca="false">K16-M16</f>
         <v>600</v>
       </c>
@@ -1438,107 +4223,107 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="4" t="n">
+      <c r="G17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K17" s="3" t="n">
         <f aca="false">N16</f>
         <v>600</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="n">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="N17" s="4" t="n">
+      <c r="N17" s="3" t="n">
         <f aca="false">K17-M17</f>
         <v>500</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>-100</v>
       </c>
-      <c r="G18" s="4" t="str">
+      <c r="G18" s="3" t="str">
         <f aca="false">G12</f>
         <v>Revenue</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="4" t="n">
+      <c r="H18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <f aca="false">N17</f>
         <v>500</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4" t="n">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="N18" s="4" t="n">
+      <c r="N18" s="3" t="n">
         <f aca="false">K18-M18</f>
         <v>400</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="3" t="n">
         <f aca="false">N18</f>
         <v>400</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4" t="n">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="N19" s="4" t="n">
+      <c r="N19" s="3" t="n">
         <f aca="false">K19-M19</f>
         <v>300</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="3" t="n">
         <f aca="false">N19</f>
         <v>300</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4" t="n">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="N20" s="4" t="n">
+      <c r="N20" s="3" t="n">
         <f aca="false">K20-M20</f>
         <v>200</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="4" t="n">
+        <v>247</v>
+      </c>
+      <c r="K21" s="3" t="n">
         <f aca="false">N20</f>
         <v>200</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4" t="n">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="N21" s="4" t="n">
+      <c r="N21" s="3" t="n">
         <f aca="false">K21-M21</f>
         <v>100</v>
       </c>
@@ -1561,15 +4346,15 @@
       <c r="F22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="3" t="n">
         <f aca="false">N21</f>
         <v>100</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4" t="n">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="N22" s="4" t="n">
+      <c r="N22" s="3" t="n">
         <f aca="false">K22-M22</f>
         <v>0</v>
       </c>
@@ -1592,7 +4377,7 @@
       <c r="F23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="n">
@@ -1614,7 +4399,7 @@
         <f aca="false">D11+E15+D17</f>
         <v>-900</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="n">
@@ -1625,11 +4410,11 @@
         <f aca="false">SUM(D22:D24)</f>
         <v>-300</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="3" t="n">
         <f aca="false">SUM(E22:E24)</f>
         <v>1200</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="3" t="n">
         <f aca="false">SUM(F22:F24)</f>
         <v>-900</v>
       </c>
@@ -1650,59 +4435,1686 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>58</v>
+      <c r="A1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="str">
-        <f aca="false">Transactions!A2</f>
-        <v>Revenue</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>59</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B58" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B69" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
+      <c r="B77" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/docs/SubledgerE2E_Aggregation_Testing.xlsx
+++ b/docs/SubledgerE2E_Aggregation_Testing.xlsx
@@ -44,12 +44,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Controllable from UI as well, Settings&gt;Journal Fields, All booking attributes are reclassable</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="263">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -568,6 +584,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reclassable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versionable</t>
   </si>
   <si>
     <t xml:space="preserve">dataType</t>
@@ -844,7 +863,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +898,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3243,19 +3268,18 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,336 +3298,390 @@
       <c r="E1" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>177</v>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>184</v>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>181</v>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>184</v>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>181</v>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>184</v>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>178</v>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>181</v>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>181</v>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>181</v>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>181</v>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>181</v>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>181</v>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>181</v>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>202</v>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>181</v>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>181</v>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>182</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3638,27 +3716,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,16 +3748,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,16 +3769,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3712,16 +3790,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,16 +3811,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3754,16 +3832,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,16 +3853,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3796,16 +3874,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,16 +3895,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,16 +3916,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3859,16 +3937,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,16 +3958,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3901,16 +3979,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,45 +4029,45 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>-100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4005,25 +4083,25 @@
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="n">
         <v>-100</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,7 +4109,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>200</v>
@@ -4039,15 +4117,15 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="n">
@@ -4055,30 +4133,30 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,16 +4164,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>200</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M11" s="1" t="n">
         <v>100</v>
@@ -4106,7 +4184,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>-200</v>
@@ -4116,7 +4194,7 @@
         <v>Revenue</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J12" s="3" t="n">
         <f aca="false">O11</f>
@@ -4154,16 +4232,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1200</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K14" s="3" t="n">
         <f aca="false">N13</f>
@@ -4179,7 +4257,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>-1200</v>
@@ -4189,7 +4267,7 @@
         <v>Def Revenue</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K15" s="3" t="n">
         <f aca="false">N14</f>
@@ -4223,16 +4301,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K17" s="3" t="n">
         <f aca="false">N16</f>
@@ -4249,7 +4327,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>-100</v>
@@ -4259,7 +4337,7 @@
         <v>Revenue</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K18" s="3" t="n">
         <f aca="false">N17</f>
@@ -4304,16 +4382,16 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K21" s="3" t="n">
         <f aca="false">N20</f>
@@ -4449,10 +4527,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,7 +4538,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4468,7 +4546,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4476,7 +4554,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4484,7 +4562,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,7 +4570,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,7 +4578,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4508,7 +4586,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4516,7 +4594,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,7 +4602,7 @@
         <v>116</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,7 +4610,7 @@
         <v>122</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4540,7 +4618,7 @@
         <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,7 +4626,7 @@
         <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,7 +4634,7 @@
         <v>142</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4564,7 +4642,7 @@
         <v>143</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,7 +4650,7 @@
         <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4580,7 +4658,7 @@
         <v>167</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4588,7 +4666,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4596,7 +4674,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,7 +4682,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4612,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4620,7 +4698,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4628,7 +4706,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,7 +4714,7 @@
         <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,7 +4722,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,7 +4730,7 @@
         <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,7 +4738,7 @@
         <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4668,7 +4746,7 @@
         <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,7 +4754,7 @@
         <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4684,7 +4762,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,7 +4770,7 @@
         <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4700,7 +4778,7 @@
         <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4708,7 +4786,7 @@
         <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,7 +4794,7 @@
         <v>91</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4724,7 +4802,7 @@
         <v>93</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4732,7 +4810,7 @@
         <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4740,7 +4818,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,7 +4826,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,7 +4834,7 @@
         <v>106</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4764,7 +4842,7 @@
         <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4772,7 +4850,7 @@
         <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,7 +4858,7 @@
         <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4788,7 +4866,7 @@
         <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4796,7 +4874,7 @@
         <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4804,7 +4882,7 @@
         <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4812,7 +4890,7 @@
         <v>132</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,7 +4898,7 @@
         <v>133</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4828,7 +4906,7 @@
         <v>140</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,7 +4914,7 @@
         <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4844,7 +4922,7 @@
         <v>142</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4852,7 +4930,7 @@
         <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4860,7 +4938,7 @@
         <v>146</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4868,7 +4946,7 @@
         <v>148</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4876,7 +4954,7 @@
         <v>165</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4884,7 +4962,7 @@
         <v>167</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4892,7 +4970,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,7 +4978,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4908,7 +4986,7 @@
         <v>60</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4916,7 +4994,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,7 +5002,7 @@
         <v>77</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,7 +5010,7 @@
         <v>90</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4940,7 +5018,7 @@
         <v>102</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4948,7 +5026,7 @@
         <v>113</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4956,7 +5034,7 @@
         <v>119</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,7 +5042,7 @@
         <v>128</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4972,7 +5050,7 @@
         <v>130</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4980,7 +5058,7 @@
         <v>147</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4988,7 +5066,7 @@
         <v>164</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5004,7 +5082,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5012,7 +5090,7 @@
         <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5020,7 +5098,7 @@
         <v>15</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5028,7 +5106,7 @@
         <v>17</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5036,7 +5114,7 @@
         <v>38</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5044,7 +5122,7 @@
         <v>46</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,7 +5130,7 @@
         <v>51</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5060,7 +5138,7 @@
         <v>60</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,7 +5146,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5076,7 +5154,7 @@
         <v>71</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5084,7 +5162,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,7 +5170,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5100,7 +5178,7 @@
         <v>90</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5108,7 +5186,7 @@
         <v>94</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5116,7 +5194,7 @@
         <v>102</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5124,7 +5202,7 @@
         <v>113</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5132,7 +5210,7 @@
         <v>119</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5140,7 +5218,7 @@
         <v>130</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5148,7 +5226,7 @@
         <v>137</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5156,7 +5234,7 @@
         <v>139</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5164,7 +5242,7 @@
         <v>145</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,7 +5250,7 @@
         <v>147</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5180,7 +5258,7 @@
         <v>164</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5188,7 +5266,7 @@
         <v>20</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5196,7 +5274,7 @@
         <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5204,7 +5282,7 @@
         <v>28</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5212,7 +5290,7 @@
         <v>32</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5220,7 +5298,7 @@
         <v>35</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5228,7 +5306,7 @@
         <v>37</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5236,7 +5314,7 @@
         <v>40</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5244,7 +5322,7 @@
         <v>42</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5252,7 +5330,7 @@
         <v>55</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,7 +5338,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,7 +5346,7 @@
         <v>73</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5276,7 +5354,7 @@
         <v>85</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5284,7 +5362,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5292,7 +5370,7 @@
         <v>110</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5300,7 +5378,7 @@
         <v>154</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5308,7 +5386,7 @@
         <v>161</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5316,7 +5394,7 @@
         <v>19</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5324,7 +5402,7 @@
         <v>23</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,7 +5410,7 @@
         <v>27</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5340,7 +5418,7 @@
         <v>31</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5348,7 +5426,7 @@
         <v>39</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5356,7 +5434,7 @@
         <v>41</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5364,7 +5442,7 @@
         <v>54</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5372,7 +5450,7 @@
         <v>64</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,7 +5458,7 @@
         <v>72</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5388,7 +5466,7 @@
         <v>84</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5396,7 +5474,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5404,7 +5482,7 @@
         <v>109</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5412,7 +5490,7 @@
         <v>153</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5420,7 +5498,7 @@
         <v>160</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5428,7 +5506,7 @@
         <v>22</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5436,7 +5514,7 @@
         <v>26</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5444,7 +5522,7 @@
         <v>30</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5452,7 +5530,7 @@
         <v>34</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5460,7 +5538,7 @@
         <v>48</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,7 +5546,7 @@
         <v>62</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,7 +5554,7 @@
         <v>69</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5484,7 +5562,7 @@
         <v>79</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5492,7 +5570,7 @@
         <v>92</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5500,7 +5578,7 @@
         <v>104</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,7 +5586,7 @@
         <v>115</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5516,7 +5594,7 @@
         <v>121</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5524,7 +5602,7 @@
         <v>156</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5532,7 +5610,7 @@
         <v>166</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,7 +5618,7 @@
         <v>21</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5548,7 +5626,7 @@
         <v>25</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5556,7 +5634,7 @@
         <v>29</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,7 +5642,7 @@
         <v>33</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,7 +5650,7 @@
         <v>43</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5580,7 +5658,7 @@
         <v>56</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5588,7 +5666,7 @@
         <v>66</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5596,7 +5674,7 @@
         <v>74</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5604,7 +5682,7 @@
         <v>86</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5612,7 +5690,7 @@
         <v>98</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5620,7 +5698,7 @@
         <v>111</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,7 +5706,7 @@
         <v>117</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5636,7 +5714,7 @@
         <v>155</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5644,7 +5722,7 @@
         <v>162</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5652,7 +5730,7 @@
         <v>18</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5660,7 +5738,7 @@
         <v>36</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5668,7 +5746,7 @@
         <v>47</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5676,7 +5754,7 @@
         <v>61</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5684,7 +5762,7 @@
         <v>68</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5692,7 +5770,7 @@
         <v>78</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5700,7 +5778,7 @@
         <v>91</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5708,7 +5786,7 @@
         <v>103</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,7 +5794,7 @@
         <v>114</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5724,7 +5802,7 @@
         <v>120</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5732,7 +5810,7 @@
         <v>140</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5740,7 +5818,7 @@
         <v>141</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5748,7 +5826,7 @@
         <v>165</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
